--- a/Sinan/proje3/TEST_EXCEL.xlsx
+++ b/Sinan/proje3/TEST_EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python3\Egzersizler\Sinan\proje3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFC055-757D-44B7-BB20-30D69EA276E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3ED62-AE3B-417E-A88B-3D2443CEC282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DE49059-3527-4C64-8568-779B2E5C2D80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -229,75 +229,6 @@
   </si>
   <si>
     <t>Product24</t>
-  </si>
-  <si>
-    <t>50 TL</t>
-  </si>
-  <si>
-    <t>150 TL</t>
-  </si>
-  <si>
-    <t>200 TL</t>
-  </si>
-  <si>
-    <t>250 TL</t>
-  </si>
-  <si>
-    <t>300 TL</t>
-  </si>
-  <si>
-    <t>350 TL</t>
-  </si>
-  <si>
-    <t>400 TL</t>
-  </si>
-  <si>
-    <t>450 TL</t>
-  </si>
-  <si>
-    <t>500 TL</t>
-  </si>
-  <si>
-    <t>550 TL</t>
-  </si>
-  <si>
-    <t>600 TL</t>
-  </si>
-  <si>
-    <t>650 TL</t>
-  </si>
-  <si>
-    <t>700 TL</t>
-  </si>
-  <si>
-    <t>750 TL</t>
-  </si>
-  <si>
-    <t>800 TL</t>
-  </si>
-  <si>
-    <t>850 TL</t>
-  </si>
-  <si>
-    <t>900 TL</t>
-  </si>
-  <si>
-    <t>950 TL</t>
-  </si>
-  <si>
-    <t>1000 TL</t>
-  </si>
-  <si>
-    <t>1050 TL</t>
-  </si>
-  <si>
-    <t>1100 TL</t>
-  </si>
-  <si>
-    <t>1150 TL</t>
-  </si>
-  <si>
-    <t>1200 TL</t>
   </si>
   <si>
     <t>Azra Optik</t>
@@ -524,12 +455,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,13 +778,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC2A9CF-9316-42B7-8C01-3EDD13798F4D}">
   <dimension ref="A1:H405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -864,7 +795,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -897,7 +828,7 @@
         <v>10001</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -911,8 +842,8 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>65</v>
+      <c r="H2" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,7 +854,7 @@
         <v>10001</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -937,8 +868,8 @@
       <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>65</v>
+      <c r="H3" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,7 +880,7 @@
         <v>10001</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -963,8 +894,8 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>65</v>
+      <c r="H4" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,7 +906,7 @@
         <v>10001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>8</v>
@@ -989,8 +920,8 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>65</v>
+      <c r="H5" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,7 +932,7 @@
         <v>10001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -1015,8 +946,8 @@
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>65</v>
+      <c r="H6" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,7 +958,7 @@
         <v>10001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>8</v>
@@ -1041,8 +972,8 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>65</v>
+      <c r="H7" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,7 +984,7 @@
         <v>10001</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
@@ -1067,8 +998,8 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
+      <c r="H8" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1079,7 +1010,7 @@
         <v>10001</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>8</v>
@@ -1093,8 +1024,8 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>65</v>
+      <c r="H9" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,7 +1036,7 @@
         <v>10001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>8</v>
@@ -1119,8 +1050,8 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>65</v>
+      <c r="H10" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,7 +1062,7 @@
         <v>10001</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>8</v>
@@ -1145,8 +1076,8 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>65</v>
+      <c r="H11" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,7 +1088,7 @@
         <v>10001</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>8</v>
@@ -1171,8 +1102,8 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>65</v>
+      <c r="H12" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,7 +1114,7 @@
         <v>10001</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>8</v>
@@ -1197,8 +1128,8 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>65</v>
+      <c r="H13" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,7 +1140,7 @@
         <v>10001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>8</v>
@@ -1223,8 +1154,8 @@
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>65</v>
+      <c r="H14" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,7 +1166,7 @@
         <v>10001</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
@@ -1249,8 +1180,8 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>65</v>
+      <c r="H15" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1192,7 @@
         <v>10001</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>8</v>
@@ -1275,8 +1206,8 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>65</v>
+      <c r="H16" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1287,7 +1218,7 @@
         <v>10001</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>8</v>
@@ -1301,8 +1232,8 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
+      <c r="H17" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,7 +1244,7 @@
         <v>10001</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>8</v>
@@ -1327,8 +1258,8 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>65</v>
+      <c r="H18" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,7 +1270,7 @@
         <v>10001</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>8</v>
@@ -1353,8 +1284,8 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>65</v>
+      <c r="H19" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,7 +1296,7 @@
         <v>10001</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
@@ -1379,8 +1310,8 @@
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>65</v>
+      <c r="H20" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,7 +1322,7 @@
         <v>10001</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>8</v>
@@ -1405,8 +1336,8 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>65</v>
+      <c r="H21" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,7 +1348,7 @@
         <v>10001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>8</v>
@@ -1431,8 +1362,8 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>65</v>
+      <c r="H22" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,7 +1374,7 @@
         <v>10001</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>8</v>
@@ -1457,8 +1388,8 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>65</v>
+      <c r="H23" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,7 +1400,7 @@
         <v>10001</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>8</v>
@@ -1483,8 +1414,8 @@
       <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>65</v>
+      <c r="H24" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1426,7 @@
         <v>10001</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>8</v>
@@ -1509,8 +1440,8 @@
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>65</v>
+      <c r="H25" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,7 +1452,7 @@
         <v>10001</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>8</v>
@@ -1535,8 +1466,8 @@
       <c r="G26" s="8">
         <v>1</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>65</v>
+      <c r="H26" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,7 +1478,7 @@
         <v>10001</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>8</v>
@@ -1561,8 +1492,8 @@
       <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>65</v>
+      <c r="H27" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,7 +1504,7 @@
         <v>10001</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>8</v>
@@ -1587,8 +1518,8 @@
       <c r="G28" s="8">
         <v>1</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>65</v>
+      <c r="H28" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,7 +1530,7 @@
         <v>10001</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>8</v>
@@ -1613,8 +1544,8 @@
       <c r="G29" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>65</v>
+      <c r="H29" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,7 +1556,7 @@
         <v>10001</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>8</v>
@@ -1639,8 +1570,8 @@
       <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>65</v>
+      <c r="H30" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,7 +1582,7 @@
         <v>10001</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>8</v>
@@ -1665,8 +1596,8 @@
       <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>65</v>
+      <c r="H31" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,7 +1608,7 @@
         <v>10001</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>8</v>
@@ -1691,8 +1622,8 @@
       <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>65</v>
+      <c r="H32" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,7 +1634,7 @@
         <v>10001</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>8</v>
@@ -1717,8 +1648,8 @@
       <c r="G33" s="8">
         <v>1</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>65</v>
+      <c r="H33" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,7 +1660,7 @@
         <v>10001</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>8</v>
@@ -1743,8 +1674,8 @@
       <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>65</v>
+      <c r="H34" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,7 +1686,7 @@
         <v>10001</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>8</v>
@@ -1769,8 +1700,8 @@
       <c r="G35" s="7">
         <v>1</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>65</v>
+      <c r="H35" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1712,7 @@
         <v>10001</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>8</v>
@@ -1795,8 +1726,8 @@
       <c r="G36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>65</v>
+      <c r="H36" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,7 +1738,7 @@
         <v>10001</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>8</v>
@@ -1821,8 +1752,8 @@
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>65</v>
+      <c r="H37" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,7 +1764,7 @@
         <v>10001</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>8</v>
@@ -1847,8 +1778,8 @@
       <c r="G38" s="8">
         <v>1</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>65</v>
+      <c r="H38" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,7 +1790,7 @@
         <v>10001</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>8</v>
@@ -1873,8 +1804,8 @@
       <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>65</v>
+      <c r="H39" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,7 +1816,7 @@
         <v>10001</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>8</v>
@@ -1899,8 +1830,8 @@
       <c r="G40" s="8">
         <v>1</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>65</v>
+      <c r="H40" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,7 +1842,7 @@
         <v>10001</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>8</v>
@@ -1925,8 +1856,8 @@
       <c r="G41" s="8">
         <v>1</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>65</v>
+      <c r="H41" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,7 +1868,7 @@
         <v>10001</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>8</v>
@@ -1951,8 +1882,8 @@
       <c r="G42" s="8">
         <v>1</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>65</v>
+      <c r="H42" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,7 +1894,7 @@
         <v>10001</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>8</v>
@@ -1977,8 +1908,8 @@
       <c r="G43" s="7">
         <v>1</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>65</v>
+      <c r="H43" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,7 +1920,7 @@
         <v>10001</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>8</v>
@@ -2003,8 +1934,8 @@
       <c r="G44" s="8">
         <v>1</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>65</v>
+      <c r="H44" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,7 +1946,7 @@
         <v>10001</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>8</v>
@@ -2029,8 +1960,8 @@
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="9" t="s">
-        <v>65</v>
+      <c r="H45" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2041,7 +1972,7 @@
         <v>10001</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>8</v>
@@ -2055,8 +1986,8 @@
       <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>65</v>
+      <c r="H46" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2067,7 +1998,7 @@
         <v>10001</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>8</v>
@@ -2081,8 +2012,8 @@
       <c r="G47" s="8">
         <v>1</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>65</v>
+      <c r="H47" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,7 +2024,7 @@
         <v>10001</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>8</v>
@@ -2107,8 +2038,8 @@
       <c r="G48" s="8">
         <v>1</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>65</v>
+      <c r="H48" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,7 +2050,7 @@
         <v>10001</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>8</v>
@@ -2133,8 +2064,8 @@
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>65</v>
+      <c r="H49" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,7 +2076,7 @@
         <v>10001</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>8</v>
@@ -2159,8 +2090,8 @@
       <c r="G50" s="8">
         <v>1</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>65</v>
+      <c r="H50" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2171,7 +2102,7 @@
         <v>10001</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>8</v>
@@ -2185,8 +2116,8 @@
       <c r="G51" s="8">
         <v>1</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>65</v>
+      <c r="H51" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,7 +2128,7 @@
         <v>10001</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>8</v>
@@ -2211,8 +2142,8 @@
       <c r="G52" s="8">
         <v>1</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>65</v>
+      <c r="H52" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2223,7 +2154,7 @@
         <v>10001</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>8</v>
@@ -2237,8 +2168,8 @@
       <c r="G53" s="7">
         <v>1</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>65</v>
+      <c r="H53" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2249,7 +2180,7 @@
         <v>10001</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>8</v>
@@ -2263,8 +2194,8 @@
       <c r="G54" s="7">
         <v>1</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>65</v>
+      <c r="H54" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2275,7 +2206,7 @@
         <v>10001</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>8</v>
@@ -2289,8 +2220,8 @@
       <c r="G55" s="8">
         <v>1</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>65</v>
+      <c r="H55" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2301,7 +2232,7 @@
         <v>10001</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>8</v>
@@ -2315,8 +2246,8 @@
       <c r="G56" s="8">
         <v>1</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>65</v>
+      <c r="H56" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,7 +2258,7 @@
         <v>10001</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>8</v>
@@ -2341,8 +2272,8 @@
       <c r="G57" s="8">
         <v>1</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>65</v>
+      <c r="H57" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,7 +2284,7 @@
         <v>10001</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>8</v>
@@ -2367,8 +2298,8 @@
       <c r="G58" s="7">
         <v>1</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>65</v>
+      <c r="H58" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2379,7 +2310,7 @@
         <v>10001</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>8</v>
@@ -2393,8 +2324,8 @@
       <c r="G59" s="7">
         <v>1</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>65</v>
+      <c r="H59" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,8 +2350,8 @@
       <c r="G60" s="8">
         <v>1</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>65</v>
+      <c r="H60" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,8 +2376,8 @@
       <c r="G61" s="8">
         <v>1</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>65</v>
+      <c r="H61" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2471,8 +2402,8 @@
       <c r="G62" s="7">
         <v>1</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>65</v>
+      <c r="H62" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,8 +2428,8 @@
       <c r="G63" s="8">
         <v>1</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>65</v>
+      <c r="H63" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,8 +2454,8 @@
       <c r="G64" s="7">
         <v>1</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>65</v>
+      <c r="H64" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,8 +2480,8 @@
       <c r="G65" s="7">
         <v>1</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>65</v>
+      <c r="H65" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,8 +2506,8 @@
       <c r="G66" s="7">
         <v>1</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>65</v>
+      <c r="H66" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,8 +2532,8 @@
       <c r="G67" s="7">
         <v>1</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>65</v>
+      <c r="H67" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,8 +2558,8 @@
       <c r="G68" s="8">
         <v>1</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>65</v>
+      <c r="H68" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,8 +2584,8 @@
       <c r="G69" s="8">
         <v>1</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>65</v>
+      <c r="H69" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,8 +2610,8 @@
       <c r="G70" s="8">
         <v>1</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>65</v>
+      <c r="H70" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2705,8 +2636,8 @@
       <c r="G71" s="8">
         <v>1</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>65</v>
+      <c r="H71" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,8 +2662,8 @@
       <c r="G72" s="7">
         <v>1</v>
       </c>
-      <c r="H72" s="9" t="s">
-        <v>65</v>
+      <c r="H72" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2757,8 +2688,8 @@
       <c r="G73" s="8">
         <v>1</v>
       </c>
-      <c r="H73" s="9" t="s">
-        <v>65</v>
+      <c r="H73" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2783,8 +2714,8 @@
       <c r="G74" s="7">
         <v>1</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>65</v>
+      <c r="H74" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,8 +2740,8 @@
       <c r="G75" s="7">
         <v>1</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>65</v>
+      <c r="H75" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2835,8 +2766,8 @@
       <c r="G76" s="7">
         <v>1</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>65</v>
+      <c r="H76" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,8 +2792,8 @@
       <c r="G77" s="7">
         <v>1</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>65</v>
+      <c r="H77" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,8 +2818,8 @@
       <c r="G78" s="7">
         <v>1</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>65</v>
+      <c r="H78" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,8 +2844,8 @@
       <c r="G79" s="8">
         <v>1</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>65</v>
+      <c r="H79" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,8 +2870,8 @@
       <c r="G80" s="7">
         <v>1</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>65</v>
+      <c r="H80" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,8 +2896,8 @@
       <c r="G81" s="8">
         <v>1</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>65</v>
+      <c r="H81" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2991,8 +2922,8 @@
       <c r="G82" s="7">
         <v>1</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>65</v>
+      <c r="H82" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,8 +2948,8 @@
       <c r="G83" s="8">
         <v>1</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>65</v>
+      <c r="H83" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3043,8 +2974,8 @@
       <c r="G84" s="7">
         <v>1</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>65</v>
+      <c r="H84" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,8 +3000,8 @@
       <c r="G85" s="7">
         <v>1</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>65</v>
+      <c r="H85" s="13">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,8 +3026,8 @@
       <c r="G86" s="7">
         <v>1</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>66</v>
+      <c r="H86" s="13">
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,8 +3052,8 @@
       <c r="G87" s="8">
         <v>1</v>
       </c>
-      <c r="H87" s="9" t="s">
-        <v>67</v>
+      <c r="H87" s="13">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,8 +3078,8 @@
       <c r="G88" s="7">
         <v>1</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>68</v>
+      <c r="H88" s="13">
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,8 +3104,8 @@
       <c r="G89" s="8">
         <v>1</v>
       </c>
-      <c r="H89" s="9" t="s">
-        <v>68</v>
+      <c r="H89" s="13">
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3199,8 +3130,8 @@
       <c r="G90" s="7">
         <v>1</v>
       </c>
-      <c r="H90" s="9" t="s">
-        <v>69</v>
+      <c r="H90" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3225,8 +3156,8 @@
       <c r="G91" s="8">
         <v>1</v>
       </c>
-      <c r="H91" s="9" t="s">
-        <v>69</v>
+      <c r="H91" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3251,8 +3182,8 @@
       <c r="G92" s="7">
         <v>1</v>
       </c>
-      <c r="H92" s="9" t="s">
-        <v>69</v>
+      <c r="H92" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,8 +3208,8 @@
       <c r="G93" s="7">
         <v>1</v>
       </c>
-      <c r="H93" s="9" t="s">
-        <v>69</v>
+      <c r="H93" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3303,8 +3234,8 @@
       <c r="G94" s="8">
         <v>1</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>69</v>
+      <c r="H94" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3329,8 +3260,8 @@
       <c r="G95" s="7">
         <v>1</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>69</v>
+      <c r="H95" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,8 +3286,8 @@
       <c r="G96" s="7">
         <v>1</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>69</v>
+      <c r="H96" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,8 +3312,8 @@
       <c r="G97" s="8">
         <v>1</v>
       </c>
-      <c r="H97" s="9" t="s">
-        <v>69</v>
+      <c r="H97" s="13">
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3407,8 +3338,8 @@
       <c r="G98" s="8">
         <v>1</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>70</v>
+      <c r="H98" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3433,8 +3364,8 @@
       <c r="G99" s="7">
         <v>1</v>
       </c>
-      <c r="H99" s="9" t="s">
-        <v>70</v>
+      <c r="H99" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3459,8 +3390,8 @@
       <c r="G100" s="8">
         <v>1</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>70</v>
+      <c r="H100" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,8 +3416,8 @@
       <c r="G101" s="8">
         <v>1</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>70</v>
+      <c r="H101" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3511,8 +3442,8 @@
       <c r="G102" s="7">
         <v>1</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>70</v>
+      <c r="H102" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3537,8 +3468,8 @@
       <c r="G103" s="7">
         <v>1</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>70</v>
+      <c r="H103" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3563,8 +3494,8 @@
       <c r="G104" s="7">
         <v>1</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>70</v>
+      <c r="H104" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3589,8 +3520,8 @@
       <c r="G105" s="8">
         <v>1</v>
       </c>
-      <c r="H105" s="9" t="s">
-        <v>70</v>
+      <c r="H105" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3615,8 +3546,8 @@
       <c r="G106" s="7">
         <v>1</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>70</v>
+      <c r="H106" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,8 +3572,8 @@
       <c r="G107" s="8">
         <v>-2</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>70</v>
+      <c r="H107" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,8 +3598,8 @@
       <c r="G108" s="7">
         <v>1</v>
       </c>
-      <c r="H108" s="9" t="s">
-        <v>70</v>
+      <c r="H108" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3693,8 +3624,8 @@
       <c r="G109" s="8">
         <v>1</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>70</v>
+      <c r="H109" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,8 +3650,8 @@
       <c r="G110" s="8">
         <v>1</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>70</v>
+      <c r="H110" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3745,8 +3676,8 @@
       <c r="G111" s="7">
         <v>1</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>70</v>
+      <c r="H111" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,8 +3702,8 @@
       <c r="G112" s="7">
         <v>1</v>
       </c>
-      <c r="H112" s="9" t="s">
-        <v>70</v>
+      <c r="H112" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,8 +3728,8 @@
       <c r="G113" s="7">
         <v>1</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>70</v>
+      <c r="H113" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,8 +3754,8 @@
       <c r="G114" s="8">
         <v>1</v>
       </c>
-      <c r="H114" s="9" t="s">
-        <v>70</v>
+      <c r="H114" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,8 +3780,8 @@
       <c r="G115" s="7">
         <v>1</v>
       </c>
-      <c r="H115" s="9" t="s">
-        <v>70</v>
+      <c r="H115" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,8 +3806,8 @@
       <c r="G116" s="7">
         <v>1</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>70</v>
+      <c r="H116" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,8 +3832,8 @@
       <c r="G117" s="7">
         <v>1</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>70</v>
+      <c r="H117" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3927,8 +3858,8 @@
       <c r="G118" s="8">
         <v>1</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>70</v>
+      <c r="H118" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3953,8 +3884,8 @@
       <c r="G119" s="8">
         <v>1</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>70</v>
+      <c r="H119" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,8 +3910,8 @@
       <c r="G120" s="7">
         <v>1</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>70</v>
+      <c r="H120" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,8 +3936,8 @@
       <c r="G121" s="7">
         <v>1</v>
       </c>
-      <c r="H121" s="9" t="s">
-        <v>70</v>
+      <c r="H121" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4031,8 +3962,8 @@
       <c r="G122" s="7">
         <v>1</v>
       </c>
-      <c r="H122" s="9" t="s">
-        <v>70</v>
+      <c r="H122" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,8 +3988,8 @@
       <c r="G123" s="8">
         <v>1</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>70</v>
+      <c r="H123" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4083,8 +4014,8 @@
       <c r="G124" s="7">
         <v>1</v>
       </c>
-      <c r="H124" s="9" t="s">
-        <v>70</v>
+      <c r="H124" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4109,8 +4040,8 @@
       <c r="G125" s="8">
         <v>1</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>70</v>
+      <c r="H125" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4135,8 +4066,8 @@
       <c r="G126" s="8">
         <v>1</v>
       </c>
-      <c r="H126" s="9" t="s">
-        <v>70</v>
+      <c r="H126" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4161,8 +4092,8 @@
       <c r="G127" s="7">
         <v>1</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>70</v>
+      <c r="H127" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4173,7 +4104,7 @@
         <v>10009</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>12</v>
@@ -4187,8 +4118,8 @@
       <c r="G128" s="7">
         <v>1</v>
       </c>
-      <c r="H128" s="9" t="s">
-        <v>70</v>
+      <c r="H128" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,7 +4130,7 @@
         <v>10009</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>12</v>
@@ -4213,8 +4144,8 @@
       <c r="G129" s="7">
         <v>1</v>
       </c>
-      <c r="H129" s="9" t="s">
-        <v>70</v>
+      <c r="H129" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4225,7 +4156,7 @@
         <v>10009</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>12</v>
@@ -4239,8 +4170,8 @@
       <c r="G130" s="8">
         <v>1</v>
       </c>
-      <c r="H130" s="9" t="s">
-        <v>70</v>
+      <c r="H130" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4251,7 +4182,7 @@
         <v>10009</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>12</v>
@@ -4265,8 +4196,8 @@
       <c r="G131" s="8">
         <v>1</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>70</v>
+      <c r="H131" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,8 +4222,8 @@
       <c r="G132" s="8">
         <v>1</v>
       </c>
-      <c r="H132" s="9" t="s">
-        <v>70</v>
+      <c r="H132" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4317,8 +4248,8 @@
       <c r="G133" s="7">
         <v>1</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>70</v>
+      <c r="H133" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4343,8 +4274,8 @@
       <c r="G134" s="7">
         <v>1</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>70</v>
+      <c r="H134" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,8 +4300,8 @@
       <c r="G135" s="8">
         <v>1</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>70</v>
+      <c r="H135" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4395,8 +4326,8 @@
       <c r="G136" s="8">
         <v>1</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>70</v>
+      <c r="H136" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4421,8 +4352,8 @@
       <c r="G137" s="8">
         <v>1</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>70</v>
+      <c r="H137" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,8 +4378,8 @@
       <c r="G138" s="8">
         <v>1</v>
       </c>
-      <c r="H138" s="9" t="s">
-        <v>70</v>
+      <c r="H138" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4473,8 +4404,8 @@
       <c r="G139" s="7">
         <v>1</v>
       </c>
-      <c r="H139" s="9" t="s">
-        <v>70</v>
+      <c r="H139" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4499,8 +4430,8 @@
       <c r="G140" s="7">
         <v>1</v>
       </c>
-      <c r="H140" s="9" t="s">
-        <v>70</v>
+      <c r="H140" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,8 +4456,8 @@
       <c r="G141" s="7">
         <v>1</v>
       </c>
-      <c r="H141" s="9" t="s">
-        <v>70</v>
+      <c r="H141" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4551,8 +4482,8 @@
       <c r="G142" s="8">
         <v>1</v>
       </c>
-      <c r="H142" s="9" t="s">
-        <v>70</v>
+      <c r="H142" s="13">
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4577,8 +4508,8 @@
       <c r="G143" s="8">
         <v>1</v>
       </c>
-      <c r="H143" s="9" t="s">
-        <v>71</v>
+      <c r="H143" s="13">
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4589,7 +4520,7 @@
         <v>10009</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>12</v>
@@ -4603,8 +4534,8 @@
       <c r="G144" s="7">
         <v>1</v>
       </c>
-      <c r="H144" s="9" t="s">
-        <v>71</v>
+      <c r="H144" s="13">
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4629,8 +4560,8 @@
       <c r="G145" s="8">
         <v>1</v>
       </c>
-      <c r="H145" s="9" t="s">
-        <v>72</v>
+      <c r="H145" s="13">
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4655,8 +4586,8 @@
       <c r="G146" s="7">
         <v>1</v>
       </c>
-      <c r="H146" s="9" t="s">
-        <v>72</v>
+      <c r="H146" s="13">
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4681,8 +4612,8 @@
       <c r="G147" s="7">
         <v>1</v>
       </c>
-      <c r="H147" s="9" t="s">
-        <v>72</v>
+      <c r="H147" s="13">
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,8 +4638,8 @@
       <c r="G148" s="7">
         <v>1</v>
       </c>
-      <c r="H148" s="9" t="s">
-        <v>72</v>
+      <c r="H148" s="13">
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4733,8 +4664,8 @@
       <c r="G149" s="7">
         <v>1</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>73</v>
+      <c r="H149" s="13">
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4759,8 +4690,8 @@
       <c r="G150" s="8">
         <v>1</v>
       </c>
-      <c r="H150" s="9" t="s">
-        <v>73</v>
+      <c r="H150" s="13">
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4771,7 +4702,7 @@
         <v>10001</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>8</v>
@@ -4785,8 +4716,8 @@
       <c r="G151" s="7">
         <v>1</v>
       </c>
-      <c r="H151" s="9" t="s">
-        <v>74</v>
+      <c r="H151" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,7 +4728,7 @@
         <v>10001</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>8</v>
@@ -4811,8 +4742,8 @@
       <c r="G152" s="8">
         <v>1</v>
       </c>
-      <c r="H152" s="9" t="s">
-        <v>74</v>
+      <c r="H152" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4823,7 +4754,7 @@
         <v>10001</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>8</v>
@@ -4837,8 +4768,8 @@
       <c r="G153" s="7">
         <v>1</v>
       </c>
-      <c r="H153" s="9" t="s">
-        <v>74</v>
+      <c r="H153" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,7 +4780,7 @@
         <v>10001</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>8</v>
@@ -4863,8 +4794,8 @@
       <c r="G154" s="7">
         <v>1</v>
       </c>
-      <c r="H154" s="9" t="s">
-        <v>74</v>
+      <c r="H154" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4875,7 +4806,7 @@
         <v>10001</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>8</v>
@@ -4889,8 +4820,8 @@
       <c r="G155" s="7">
         <v>1</v>
       </c>
-      <c r="H155" s="9" t="s">
-        <v>74</v>
+      <c r="H155" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4901,7 +4832,7 @@
         <v>10001</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>8</v>
@@ -4915,8 +4846,8 @@
       <c r="G156" s="8">
         <v>1</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>74</v>
+      <c r="H156" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4927,7 +4858,7 @@
         <v>10001</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>8</v>
@@ -4941,8 +4872,8 @@
       <c r="G157" s="8">
         <v>1</v>
       </c>
-      <c r="H157" s="9" t="s">
-        <v>74</v>
+      <c r="H157" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4953,7 +4884,7 @@
         <v>10001</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>8</v>
@@ -4967,8 +4898,8 @@
       <c r="G158" s="7">
         <v>1</v>
       </c>
-      <c r="H158" s="9" t="s">
-        <v>74</v>
+      <c r="H158" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4979,7 +4910,7 @@
         <v>10001</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>8</v>
@@ -4993,8 +4924,8 @@
       <c r="G159" s="7">
         <v>1</v>
       </c>
-      <c r="H159" s="9" t="s">
-        <v>74</v>
+      <c r="H159" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5005,7 +4936,7 @@
         <v>10001</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>8</v>
@@ -5019,8 +4950,8 @@
       <c r="G160" s="8">
         <v>1</v>
       </c>
-      <c r="H160" s="9" t="s">
-        <v>74</v>
+      <c r="H160" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,7 +4962,7 @@
         <v>10001</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>8</v>
@@ -5045,8 +4976,8 @@
       <c r="G161" s="8">
         <v>1</v>
       </c>
-      <c r="H161" s="9" t="s">
-        <v>74</v>
+      <c r="H161" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5057,7 +4988,7 @@
         <v>10001</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>8</v>
@@ -5071,8 +5002,8 @@
       <c r="G162" s="7">
         <v>1</v>
       </c>
-      <c r="H162" s="9" t="s">
-        <v>74</v>
+      <c r="H162" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5083,7 +5014,7 @@
         <v>10001</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>8</v>
@@ -5097,8 +5028,8 @@
       <c r="G163" s="7">
         <v>1</v>
       </c>
-      <c r="H163" s="9" t="s">
-        <v>74</v>
+      <c r="H163" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5109,7 +5040,7 @@
         <v>10001</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>8</v>
@@ -5123,8 +5054,8 @@
       <c r="G164" s="8">
         <v>1</v>
       </c>
-      <c r="H164" s="9" t="s">
-        <v>74</v>
+      <c r="H164" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5135,7 +5066,7 @@
         <v>10001</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>8</v>
@@ -5149,8 +5080,8 @@
       <c r="G165" s="8">
         <v>1</v>
       </c>
-      <c r="H165" s="9" t="s">
-        <v>74</v>
+      <c r="H165" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5161,7 +5092,7 @@
         <v>10001</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>8</v>
@@ -5175,8 +5106,8 @@
       <c r="G166" s="8">
         <v>1</v>
       </c>
-      <c r="H166" s="9" t="s">
-        <v>74</v>
+      <c r="H166" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,7 +5118,7 @@
         <v>10001</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>8</v>
@@ -5201,8 +5132,8 @@
       <c r="G167" s="8">
         <v>1</v>
       </c>
-      <c r="H167" s="9" t="s">
-        <v>74</v>
+      <c r="H167" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5213,7 +5144,7 @@
         <v>10001</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>8</v>
@@ -5227,8 +5158,8 @@
       <c r="G168" s="8">
         <v>1</v>
       </c>
-      <c r="H168" s="9" t="s">
-        <v>74</v>
+      <c r="H168" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5239,7 +5170,7 @@
         <v>10001</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>8</v>
@@ -5253,8 +5184,8 @@
       <c r="G169" s="8">
         <v>1</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>74</v>
+      <c r="H169" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5265,7 +5196,7 @@
         <v>10001</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>8</v>
@@ -5279,8 +5210,8 @@
       <c r="G170" s="8">
         <v>1</v>
       </c>
-      <c r="H170" s="9" t="s">
-        <v>74</v>
+      <c r="H170" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5291,7 +5222,7 @@
         <v>10001</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>8</v>
@@ -5305,8 +5236,8 @@
       <c r="G171" s="7">
         <v>1</v>
       </c>
-      <c r="H171" s="9" t="s">
-        <v>74</v>
+      <c r="H171" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5317,7 +5248,7 @@
         <v>10001</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>8</v>
@@ -5331,8 +5262,8 @@
       <c r="G172" s="8">
         <v>1</v>
       </c>
-      <c r="H172" s="9" t="s">
-        <v>74</v>
+      <c r="H172" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5357,8 +5288,8 @@
       <c r="G173" s="8">
         <v>1</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>74</v>
+      <c r="H173" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5383,8 +5314,8 @@
       <c r="G174" s="8">
         <v>1</v>
       </c>
-      <c r="H174" s="9" t="s">
-        <v>74</v>
+      <c r="H174" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5409,8 +5340,8 @@
       <c r="G175" s="8">
         <v>1</v>
       </c>
-      <c r="H175" s="9" t="s">
-        <v>74</v>
+      <c r="H175" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5435,8 +5366,8 @@
       <c r="G176" s="8">
         <v>1</v>
       </c>
-      <c r="H176" s="9" t="s">
-        <v>74</v>
+      <c r="H176" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5461,8 +5392,8 @@
       <c r="G177" s="7">
         <v>1</v>
       </c>
-      <c r="H177" s="9" t="s">
-        <v>74</v>
+      <c r="H177" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5487,8 +5418,8 @@
       <c r="G178" s="8">
         <v>1</v>
       </c>
-      <c r="H178" s="9" t="s">
-        <v>74</v>
+      <c r="H178" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5513,8 +5444,8 @@
       <c r="G179" s="8">
         <v>1</v>
       </c>
-      <c r="H179" s="9" t="s">
-        <v>74</v>
+      <c r="H179" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5539,8 +5470,8 @@
       <c r="G180" s="8">
         <v>1</v>
       </c>
-      <c r="H180" s="9" t="s">
-        <v>74</v>
+      <c r="H180" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,8 +5496,8 @@
       <c r="G181" s="7">
         <v>1</v>
       </c>
-      <c r="H181" s="9" t="s">
-        <v>74</v>
+      <c r="H181" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5591,8 +5522,8 @@
       <c r="G182" s="7">
         <v>1</v>
       </c>
-      <c r="H182" s="9" t="s">
-        <v>74</v>
+      <c r="H182" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5617,8 +5548,8 @@
       <c r="G183" s="8">
         <v>1</v>
       </c>
-      <c r="H183" s="9" t="s">
-        <v>74</v>
+      <c r="H183" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5643,8 +5574,8 @@
       <c r="G184" s="7">
         <v>1</v>
       </c>
-      <c r="H184" s="9" t="s">
-        <v>74</v>
+      <c r="H184" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,8 +5600,8 @@
       <c r="G185" s="8">
         <v>1</v>
       </c>
-      <c r="H185" s="9" t="s">
-        <v>74</v>
+      <c r="H185" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,8 +5626,8 @@
       <c r="G186" s="8">
         <v>1</v>
       </c>
-      <c r="H186" s="9" t="s">
-        <v>74</v>
+      <c r="H186" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,8 +5652,8 @@
       <c r="G187" s="7">
         <v>1</v>
       </c>
-      <c r="H187" s="9" t="s">
-        <v>74</v>
+      <c r="H187" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,8 +5678,8 @@
       <c r="G188" s="7">
         <v>1</v>
       </c>
-      <c r="H188" s="9" t="s">
-        <v>74</v>
+      <c r="H188" s="13">
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -5773,8 +5704,8 @@
       <c r="G189" s="8">
         <v>1</v>
       </c>
-      <c r="H189" s="9" t="s">
-        <v>75</v>
+      <c r="H189" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,8 +5730,8 @@
       <c r="G190" s="8">
         <v>1</v>
       </c>
-      <c r="H190" s="9" t="s">
-        <v>75</v>
+      <c r="H190" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,8 +5756,8 @@
       <c r="G191" s="8">
         <v>1</v>
       </c>
-      <c r="H191" s="9" t="s">
-        <v>75</v>
+      <c r="H191" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,8 +5782,8 @@
       <c r="G192" s="7">
         <v>1</v>
       </c>
-      <c r="H192" s="9" t="s">
-        <v>75</v>
+      <c r="H192" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5863,7 +5794,7 @@
         <v>10001</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>8</v>
@@ -5877,8 +5808,8 @@
       <c r="G193" s="7">
         <v>1</v>
       </c>
-      <c r="H193" s="9" t="s">
-        <v>75</v>
+      <c r="H193" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5889,7 +5820,7 @@
         <v>10001</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>8</v>
@@ -5903,8 +5834,8 @@
       <c r="G194" s="7">
         <v>1</v>
       </c>
-      <c r="H194" s="9" t="s">
-        <v>75</v>
+      <c r="H194" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,8 +5860,8 @@
       <c r="G195" s="7">
         <v>-2</v>
       </c>
-      <c r="H195" s="9" t="s">
-        <v>75</v>
+      <c r="H195" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5955,8 +5886,8 @@
       <c r="G196" s="7">
         <v>1</v>
       </c>
-      <c r="H196" s="9" t="s">
-        <v>75</v>
+      <c r="H196" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5981,8 +5912,8 @@
       <c r="G197" s="7">
         <v>1</v>
       </c>
-      <c r="H197" s="9" t="s">
-        <v>75</v>
+      <c r="H197" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,8 +5938,8 @@
       <c r="G198" s="8">
         <v>1</v>
       </c>
-      <c r="H198" s="9" t="s">
-        <v>75</v>
+      <c r="H198" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,8 +5964,8 @@
       <c r="G199" s="7">
         <v>1</v>
       </c>
-      <c r="H199" s="9" t="s">
-        <v>75</v>
+      <c r="H199" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6059,8 +5990,8 @@
       <c r="G200" s="8">
         <v>1</v>
       </c>
-      <c r="H200" s="9" t="s">
-        <v>75</v>
+      <c r="H200" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,8 +6016,8 @@
       <c r="G201" s="7">
         <v>1</v>
       </c>
-      <c r="H201" s="9" t="s">
-        <v>75</v>
+      <c r="H201" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6111,8 +6042,8 @@
       <c r="G202" s="8">
         <v>1</v>
       </c>
-      <c r="H202" s="9" t="s">
-        <v>75</v>
+      <c r="H202" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6137,8 +6068,8 @@
       <c r="G203" s="8">
         <v>1</v>
       </c>
-      <c r="H203" s="9" t="s">
-        <v>75</v>
+      <c r="H203" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,8 +6094,8 @@
       <c r="G204" s="7">
         <v>1</v>
       </c>
-      <c r="H204" s="9" t="s">
-        <v>75</v>
+      <c r="H204" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,8 +6120,8 @@
       <c r="G205" s="8">
         <v>1</v>
       </c>
-      <c r="H205" s="9" t="s">
-        <v>75</v>
+      <c r="H205" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6215,8 +6146,8 @@
       <c r="G206" s="7">
         <v>1</v>
       </c>
-      <c r="H206" s="9" t="s">
-        <v>75</v>
+      <c r="H206" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6241,8 +6172,8 @@
       <c r="G207" s="8">
         <v>1</v>
       </c>
-      <c r="H207" s="9" t="s">
-        <v>75</v>
+      <c r="H207" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,8 +6198,8 @@
       <c r="G208" s="7">
         <v>1</v>
       </c>
-      <c r="H208" s="9" t="s">
-        <v>75</v>
+      <c r="H208" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6279,7 +6210,7 @@
         <v>10009</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>12</v>
@@ -6293,8 +6224,8 @@
       <c r="G209" s="8">
         <v>1</v>
       </c>
-      <c r="H209" s="9" t="s">
-        <v>75</v>
+      <c r="H209" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6305,7 +6236,7 @@
         <v>10009</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>12</v>
@@ -6319,8 +6250,8 @@
       <c r="G210" s="8">
         <v>1</v>
       </c>
-      <c r="H210" s="9" t="s">
-        <v>75</v>
+      <c r="H210" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6331,7 +6262,7 @@
         <v>10009</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>12</v>
@@ -6345,8 +6276,8 @@
       <c r="G211" s="8">
         <v>1</v>
       </c>
-      <c r="H211" s="9" t="s">
-        <v>75</v>
+      <c r="H211" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6357,7 +6288,7 @@
         <v>10009</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>12</v>
@@ -6371,8 +6302,8 @@
       <c r="G212" s="7">
         <v>1</v>
       </c>
-      <c r="H212" s="9" t="s">
-        <v>75</v>
+      <c r="H212" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6397,8 +6328,8 @@
       <c r="G213" s="8">
         <v>1</v>
       </c>
-      <c r="H213" s="9" t="s">
-        <v>75</v>
+      <c r="H213" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6423,8 +6354,8 @@
       <c r="G214" s="7">
         <v>1</v>
       </c>
-      <c r="H214" s="9" t="s">
-        <v>75</v>
+      <c r="H214" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6449,8 +6380,8 @@
       <c r="G215" s="8">
         <v>1</v>
       </c>
-      <c r="H215" s="9" t="s">
-        <v>75</v>
+      <c r="H215" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6475,8 +6406,8 @@
       <c r="G216" s="8">
         <v>1</v>
       </c>
-      <c r="H216" s="9" t="s">
-        <v>75</v>
+      <c r="H216" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -6501,8 +6432,8 @@
       <c r="G217" s="7">
         <v>1</v>
       </c>
-      <c r="H217" s="9" t="s">
-        <v>75</v>
+      <c r="H217" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -6527,8 +6458,8 @@
       <c r="G218" s="8">
         <v>1</v>
       </c>
-      <c r="H218" s="9" t="s">
-        <v>75</v>
+      <c r="H218" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6553,8 +6484,8 @@
       <c r="G219" s="8">
         <v>1</v>
       </c>
-      <c r="H219" s="9" t="s">
-        <v>75</v>
+      <c r="H219" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -6579,8 +6510,8 @@
       <c r="G220" s="8">
         <v>1</v>
       </c>
-      <c r="H220" s="9" t="s">
-        <v>75</v>
+      <c r="H220" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -6605,8 +6536,8 @@
       <c r="G221" s="8">
         <v>1</v>
       </c>
-      <c r="H221" s="9" t="s">
-        <v>75</v>
+      <c r="H221" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6631,8 +6562,8 @@
       <c r="G222" s="8">
         <v>1</v>
       </c>
-      <c r="H222" s="9" t="s">
-        <v>75</v>
+      <c r="H222" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6657,8 +6588,8 @@
       <c r="G223" s="7">
         <v>1</v>
       </c>
-      <c r="H223" s="9" t="s">
-        <v>75</v>
+      <c r="H223" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -6683,8 +6614,8 @@
       <c r="G224" s="7">
         <v>1</v>
       </c>
-      <c r="H224" s="9" t="s">
-        <v>75</v>
+      <c r="H224" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6709,8 +6640,8 @@
       <c r="G225" s="8">
         <v>1</v>
       </c>
-      <c r="H225" s="9" t="s">
-        <v>75</v>
+      <c r="H225" s="13">
+        <v>600</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6735,8 +6666,8 @@
       <c r="G226" s="8">
         <v>1</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>76</v>
+      <c r="H226" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -6761,8 +6692,8 @@
       <c r="G227" s="8">
         <v>1</v>
       </c>
-      <c r="H227" s="9" t="s">
-        <v>76</v>
+      <c r="H227" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -6787,8 +6718,8 @@
       <c r="G228" s="7">
         <v>1</v>
       </c>
-      <c r="H228" s="9" t="s">
-        <v>76</v>
+      <c r="H228" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -6813,8 +6744,8 @@
       <c r="G229" s="7">
         <v>1</v>
       </c>
-      <c r="H229" s="9" t="s">
-        <v>76</v>
+      <c r="H229" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -6825,7 +6756,7 @@
         <v>10001</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>8</v>
@@ -6839,8 +6770,8 @@
       <c r="G230" s="7">
         <v>1</v>
       </c>
-      <c r="H230" s="9" t="s">
-        <v>76</v>
+      <c r="H230" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -6851,7 +6782,7 @@
         <v>10001</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>8</v>
@@ -6865,8 +6796,8 @@
       <c r="G231" s="8">
         <v>1</v>
       </c>
-      <c r="H231" s="9" t="s">
-        <v>76</v>
+      <c r="H231" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -6891,8 +6822,8 @@
       <c r="G232" s="8">
         <v>-2</v>
       </c>
-      <c r="H232" s="9" t="s">
-        <v>76</v>
+      <c r="H232" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -6917,8 +6848,8 @@
       <c r="G233" s="8">
         <v>1</v>
       </c>
-      <c r="H233" s="9" t="s">
-        <v>76</v>
+      <c r="H233" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -6943,8 +6874,8 @@
       <c r="G234" s="8">
         <v>1</v>
       </c>
-      <c r="H234" s="9" t="s">
-        <v>76</v>
+      <c r="H234" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -6969,8 +6900,8 @@
       <c r="G235" s="8">
         <v>1</v>
       </c>
-      <c r="H235" s="9" t="s">
-        <v>76</v>
+      <c r="H235" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -6995,8 +6926,8 @@
       <c r="G236" s="7">
         <v>1</v>
       </c>
-      <c r="H236" s="9" t="s">
-        <v>76</v>
+      <c r="H236" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7021,8 +6952,8 @@
       <c r="G237" s="8">
         <v>1</v>
       </c>
-      <c r="H237" s="9" t="s">
-        <v>76</v>
+      <c r="H237" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,8 +6978,8 @@
       <c r="G238" s="7">
         <v>1</v>
       </c>
-      <c r="H238" s="9" t="s">
-        <v>76</v>
+      <c r="H238" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7073,8 +7004,8 @@
       <c r="G239" s="7">
         <v>1</v>
       </c>
-      <c r="H239" s="9" t="s">
-        <v>76</v>
+      <c r="H239" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7099,8 +7030,8 @@
       <c r="G240" s="7">
         <v>1</v>
       </c>
-      <c r="H240" s="9" t="s">
-        <v>76</v>
+      <c r="H240" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7125,8 +7056,8 @@
       <c r="G241" s="8">
         <v>1</v>
       </c>
-      <c r="H241" s="9" t="s">
-        <v>76</v>
+      <c r="H241" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7151,8 +7082,8 @@
       <c r="G242" s="8">
         <v>1</v>
       </c>
-      <c r="H242" s="9" t="s">
-        <v>76</v>
+      <c r="H242" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,8 +7108,8 @@
       <c r="G243" s="8">
         <v>1</v>
       </c>
-      <c r="H243" s="9" t="s">
-        <v>76</v>
+      <c r="H243" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7203,8 +7134,8 @@
       <c r="G244" s="8">
         <v>1</v>
       </c>
-      <c r="H244" s="9" t="s">
-        <v>76</v>
+      <c r="H244" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7229,8 +7160,8 @@
       <c r="G245" s="8">
         <v>1</v>
       </c>
-      <c r="H245" s="9" t="s">
-        <v>76</v>
+      <c r="H245" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7255,8 +7186,8 @@
       <c r="G246" s="7">
         <v>1</v>
       </c>
-      <c r="H246" s="9" t="s">
-        <v>76</v>
+      <c r="H246" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7281,8 +7212,8 @@
       <c r="G247" s="7">
         <v>1</v>
       </c>
-      <c r="H247" s="9" t="s">
-        <v>76</v>
+      <c r="H247" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,8 +7238,8 @@
       <c r="G248" s="7">
         <v>1</v>
       </c>
-      <c r="H248" s="9" t="s">
-        <v>76</v>
+      <c r="H248" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7333,8 +7264,8 @@
       <c r="G249" s="7">
         <v>1</v>
       </c>
-      <c r="H249" s="9" t="s">
-        <v>76</v>
+      <c r="H249" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7359,8 +7290,8 @@
       <c r="G250" s="7">
         <v>1</v>
       </c>
-      <c r="H250" s="9" t="s">
-        <v>76</v>
+      <c r="H250" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7385,8 +7316,8 @@
       <c r="G251" s="8">
         <v>1</v>
       </c>
-      <c r="H251" s="9" t="s">
-        <v>76</v>
+      <c r="H251" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7411,8 +7342,8 @@
       <c r="G252" s="8">
         <v>1</v>
       </c>
-      <c r="H252" s="9" t="s">
-        <v>76</v>
+      <c r="H252" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7437,8 +7368,8 @@
       <c r="G253" s="7">
         <v>1</v>
       </c>
-      <c r="H253" s="9" t="s">
-        <v>76</v>
+      <c r="H253" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -7463,8 +7394,8 @@
       <c r="G254" s="8">
         <v>1</v>
       </c>
-      <c r="H254" s="9" t="s">
-        <v>76</v>
+      <c r="H254" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -7489,8 +7420,8 @@
       <c r="G255" s="7">
         <v>1</v>
       </c>
-      <c r="H255" s="9" t="s">
-        <v>76</v>
+      <c r="H255" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -7515,8 +7446,8 @@
       <c r="G256" s="7">
         <v>1</v>
       </c>
-      <c r="H256" s="9" t="s">
-        <v>76</v>
+      <c r="H256" s="13">
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7541,8 +7472,8 @@
       <c r="G257" s="8">
         <v>1</v>
       </c>
-      <c r="H257" s="9" t="s">
-        <v>77</v>
+      <c r="H257" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -7567,8 +7498,8 @@
       <c r="G258" s="7">
         <v>1</v>
       </c>
-      <c r="H258" s="9" t="s">
-        <v>77</v>
+      <c r="H258" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,8 +7524,8 @@
       <c r="G259" s="8">
         <v>1</v>
       </c>
-      <c r="H259" s="9" t="s">
-        <v>77</v>
+      <c r="H259" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -7619,8 +7550,8 @@
       <c r="G260" s="7">
         <v>1</v>
       </c>
-      <c r="H260" s="9" t="s">
-        <v>77</v>
+      <c r="H260" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -7645,8 +7576,8 @@
       <c r="G261" s="8">
         <v>1</v>
       </c>
-      <c r="H261" s="9" t="s">
-        <v>77</v>
+      <c r="H261" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -7671,8 +7602,8 @@
       <c r="G262" s="7">
         <v>1</v>
       </c>
-      <c r="H262" s="9" t="s">
-        <v>77</v>
+      <c r="H262" s="13">
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,8 +7628,8 @@
       <c r="G263" s="8">
         <v>1</v>
       </c>
-      <c r="H263" s="9" t="s">
-        <v>78</v>
+      <c r="H263" s="13">
+        <v>750</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -7723,8 +7654,8 @@
       <c r="G264" s="7">
         <v>1</v>
       </c>
-      <c r="H264" s="9" t="s">
-        <v>79</v>
+      <c r="H264" s="13">
+        <v>800</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -7749,8 +7680,8 @@
       <c r="G265" s="7">
         <v>1</v>
       </c>
-      <c r="H265" s="9" t="s">
-        <v>79</v>
+      <c r="H265" s="13">
+        <v>800</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -7761,7 +7692,7 @@
         <v>10001</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>8</v>
@@ -7775,8 +7706,8 @@
       <c r="G266" s="8">
         <v>1</v>
       </c>
-      <c r="H266" s="9" t="s">
-        <v>80</v>
+      <c r="H266" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -7787,7 +7718,7 @@
         <v>10001</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>8</v>
@@ -7801,8 +7732,8 @@
       <c r="G267" s="7">
         <v>1</v>
       </c>
-      <c r="H267" s="9" t="s">
-        <v>80</v>
+      <c r="H267" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -7813,7 +7744,7 @@
         <v>10001</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>8</v>
@@ -7827,8 +7758,8 @@
       <c r="G268" s="7">
         <v>1</v>
       </c>
-      <c r="H268" s="9" t="s">
-        <v>80</v>
+      <c r="H268" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -7839,7 +7770,7 @@
         <v>10001</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>8</v>
@@ -7853,8 +7784,8 @@
       <c r="G269" s="7">
         <v>1</v>
       </c>
-      <c r="H269" s="9" t="s">
-        <v>80</v>
+      <c r="H269" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -7865,7 +7796,7 @@
         <v>10001</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>8</v>
@@ -7879,8 +7810,8 @@
       <c r="G270" s="8">
         <v>1</v>
       </c>
-      <c r="H270" s="9" t="s">
-        <v>80</v>
+      <c r="H270" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -7891,7 +7822,7 @@
         <v>10001</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>8</v>
@@ -7905,8 +7836,8 @@
       <c r="G271" s="7">
         <v>1</v>
       </c>
-      <c r="H271" s="9" t="s">
-        <v>80</v>
+      <c r="H271" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -7917,7 +7848,7 @@
         <v>10001</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>8</v>
@@ -7931,8 +7862,8 @@
       <c r="G272" s="7">
         <v>1</v>
       </c>
-      <c r="H272" s="9" t="s">
-        <v>80</v>
+      <c r="H272" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -7943,7 +7874,7 @@
         <v>10001</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>8</v>
@@ -7957,8 +7888,8 @@
       <c r="G273" s="7">
         <v>1</v>
       </c>
-      <c r="H273" s="9" t="s">
-        <v>80</v>
+      <c r="H273" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -7983,8 +7914,8 @@
       <c r="G274" s="8">
         <v>-2</v>
       </c>
-      <c r="H274" s="9" t="s">
-        <v>81</v>
+      <c r="H274" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8009,8 +7940,8 @@
       <c r="G275" s="7">
         <v>-2</v>
       </c>
-      <c r="H275" s="9" t="s">
-        <v>81</v>
+      <c r="H275" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8035,8 +7966,8 @@
       <c r="G276" s="7">
         <v>1</v>
       </c>
-      <c r="H276" s="9" t="s">
-        <v>81</v>
+      <c r="H276" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8061,8 +7992,8 @@
       <c r="G277" s="7">
         <v>1</v>
       </c>
-      <c r="H277" s="9" t="s">
-        <v>81</v>
+      <c r="H277" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8087,8 +8018,8 @@
       <c r="G278" s="8">
         <v>1</v>
       </c>
-      <c r="H278" s="9" t="s">
-        <v>81</v>
+      <c r="H278" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8113,8 +8044,8 @@
       <c r="G279" s="8">
         <v>1</v>
       </c>
-      <c r="H279" s="9" t="s">
-        <v>81</v>
+      <c r="H279" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8139,8 +8070,8 @@
       <c r="G280" s="8">
         <v>1</v>
       </c>
-      <c r="H280" s="9" t="s">
-        <v>81</v>
+      <c r="H280" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -8165,8 +8096,8 @@
       <c r="G281" s="8">
         <v>1</v>
       </c>
-      <c r="H281" s="9" t="s">
-        <v>81</v>
+      <c r="H281" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -8191,8 +8122,8 @@
       <c r="G282" s="8">
         <v>1</v>
       </c>
-      <c r="H282" s="9" t="s">
-        <v>81</v>
+      <c r="H282" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8217,8 +8148,8 @@
       <c r="G283" s="8">
         <v>1</v>
       </c>
-      <c r="H283" s="9" t="s">
-        <v>81</v>
+      <c r="H283" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8243,8 +8174,8 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="H284" s="9" t="s">
-        <v>81</v>
+      <c r="H284" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8269,8 +8200,8 @@
       <c r="G285" s="8">
         <v>1</v>
       </c>
-      <c r="H285" s="9" t="s">
-        <v>81</v>
+      <c r="H285" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -8295,8 +8226,8 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="H286" s="9" t="s">
-        <v>81</v>
+      <c r="H286" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -8321,8 +8252,8 @@
       <c r="G287" s="8">
         <v>1</v>
       </c>
-      <c r="H287" s="9" t="s">
-        <v>81</v>
+      <c r="H287" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -8347,8 +8278,8 @@
       <c r="G288" s="8">
         <v>1</v>
       </c>
-      <c r="H288" s="9" t="s">
-        <v>81</v>
+      <c r="H288" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -8373,8 +8304,8 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="H289" s="9" t="s">
-        <v>81</v>
+      <c r="H289" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -8399,8 +8330,8 @@
       <c r="G290" s="8">
         <v>1</v>
       </c>
-      <c r="H290" s="9" t="s">
-        <v>81</v>
+      <c r="H290" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -8425,8 +8356,8 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="H291" s="9" t="s">
-        <v>81</v>
+      <c r="H291" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -8451,8 +8382,8 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="H292" s="9" t="s">
-        <v>81</v>
+      <c r="H292" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -8477,8 +8408,8 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="H293" s="9" t="s">
-        <v>81</v>
+      <c r="H293" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -8503,8 +8434,8 @@
       <c r="G294" s="8">
         <v>1</v>
       </c>
-      <c r="H294" s="9" t="s">
-        <v>80</v>
+      <c r="H294" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -8529,8 +8460,8 @@
       <c r="G295" s="8">
         <v>1</v>
       </c>
-      <c r="H295" s="9" t="s">
-        <v>80</v>
+      <c r="H295" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -8555,8 +8486,8 @@
       <c r="G296" s="7">
         <v>1</v>
       </c>
-      <c r="H296" s="9" t="s">
-        <v>80</v>
+      <c r="H296" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -8581,8 +8512,8 @@
       <c r="G297" s="8">
         <v>1</v>
       </c>
-      <c r="H297" s="9" t="s">
-        <v>80</v>
+      <c r="H297" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -8607,8 +8538,8 @@
       <c r="G298" s="7">
         <v>1</v>
       </c>
-      <c r="H298" s="9" t="s">
-        <v>80</v>
+      <c r="H298" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -8633,8 +8564,8 @@
       <c r="G299" s="8">
         <v>1</v>
       </c>
-      <c r="H299" s="9" t="s">
-        <v>80</v>
+      <c r="H299" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -8659,8 +8590,8 @@
       <c r="G300" s="8">
         <v>1</v>
       </c>
-      <c r="H300" s="9" t="s">
-        <v>80</v>
+      <c r="H300" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -8685,8 +8616,8 @@
       <c r="G301" s="7">
         <v>1</v>
       </c>
-      <c r="H301" s="9" t="s">
-        <v>80</v>
+      <c r="H301" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -8711,8 +8642,8 @@
       <c r="G302" s="8">
         <v>1</v>
       </c>
-      <c r="H302" s="9" t="s">
-        <v>80</v>
+      <c r="H302" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,8 +8668,8 @@
       <c r="G303" s="7">
         <v>1</v>
       </c>
-      <c r="H303" s="9" t="s">
-        <v>80</v>
+      <c r="H303" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -8763,8 +8694,8 @@
       <c r="G304" s="8">
         <v>1</v>
       </c>
-      <c r="H304" s="9" t="s">
-        <v>80</v>
+      <c r="H304" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -8789,8 +8720,8 @@
       <c r="G305" s="7">
         <v>1</v>
       </c>
-      <c r="H305" s="9" t="s">
-        <v>80</v>
+      <c r="H305" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -8801,7 +8732,7 @@
         <v>10009</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>12</v>
@@ -8815,8 +8746,8 @@
       <c r="G306" s="7">
         <v>1</v>
       </c>
-      <c r="H306" s="9" t="s">
-        <v>81</v>
+      <c r="H306" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -8827,7 +8758,7 @@
         <v>10009</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D307" s="8" t="s">
         <v>12</v>
@@ -8841,8 +8772,8 @@
       <c r="G307" s="8">
         <v>1</v>
       </c>
-      <c r="H307" s="9" t="s">
-        <v>81</v>
+      <c r="H307" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -8867,8 +8798,8 @@
       <c r="G308" s="8">
         <v>1</v>
       </c>
-      <c r="H308" s="9" t="s">
-        <v>81</v>
+      <c r="H308" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -8893,8 +8824,8 @@
       <c r="G309" s="7">
         <v>1</v>
       </c>
-      <c r="H309" s="9" t="s">
-        <v>81</v>
+      <c r="H309" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -8919,8 +8850,8 @@
       <c r="G310" s="8">
         <v>1</v>
       </c>
-      <c r="H310" s="9" t="s">
-        <v>81</v>
+      <c r="H310" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -8945,8 +8876,8 @@
       <c r="G311" s="7">
         <v>1</v>
       </c>
-      <c r="H311" s="9" t="s">
-        <v>81</v>
+      <c r="H311" s="13">
+        <v>900</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -8971,8 +8902,8 @@
       <c r="G312" s="7">
         <v>1</v>
       </c>
-      <c r="H312" s="9" t="s">
-        <v>80</v>
+      <c r="H312" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -8997,8 +8928,8 @@
       <c r="G313" s="8">
         <v>1</v>
       </c>
-      <c r="H313" s="9" t="s">
-        <v>80</v>
+      <c r="H313" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -9023,8 +8954,8 @@
       <c r="G314" s="8">
         <v>1</v>
       </c>
-      <c r="H314" s="9" t="s">
-        <v>80</v>
+      <c r="H314" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -9049,8 +8980,8 @@
       <c r="G315" s="8">
         <v>1</v>
       </c>
-      <c r="H315" s="9" t="s">
-        <v>80</v>
+      <c r="H315" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -9075,8 +9006,8 @@
       <c r="G316" s="7">
         <v>1</v>
       </c>
-      <c r="H316" s="9" t="s">
-        <v>80</v>
+      <c r="H316" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -9101,8 +9032,8 @@
       <c r="G317" s="8">
         <v>1</v>
       </c>
-      <c r="H317" s="9" t="s">
-        <v>80</v>
+      <c r="H317" s="13">
+        <v>850</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,8 +9058,8 @@
       <c r="G318" s="8">
         <v>1</v>
       </c>
-      <c r="H318" s="9" t="s">
-        <v>78</v>
+      <c r="H318" s="13">
+        <v>750</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -9153,8 +9084,8 @@
       <c r="G319" s="8">
         <v>1</v>
       </c>
-      <c r="H319" s="9" t="s">
-        <v>82</v>
+      <c r="H319" s="13">
+        <v>950</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -9179,8 +9110,8 @@
       <c r="G320" s="7">
         <v>1</v>
       </c>
-      <c r="H320" s="9" t="s">
-        <v>82</v>
+      <c r="H320" s="13">
+        <v>950</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -9205,8 +9136,8 @@
       <c r="G321" s="8">
         <v>1</v>
       </c>
-      <c r="H321" s="9" t="s">
-        <v>83</v>
+      <c r="H321" s="13">
+        <v>1000</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -9231,8 +9162,8 @@
       <c r="G322" s="7">
         <v>1</v>
       </c>
-      <c r="H322" s="9" t="s">
-        <v>84</v>
+      <c r="H322" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -9257,8 +9188,8 @@
       <c r="G323" s="8">
         <v>1</v>
       </c>
-      <c r="H323" s="9" t="s">
-        <v>84</v>
+      <c r="H323" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -9283,8 +9214,8 @@
       <c r="G324" s="8">
         <v>1</v>
       </c>
-      <c r="H324" s="9" t="s">
-        <v>84</v>
+      <c r="H324" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -9309,8 +9240,8 @@
       <c r="G325" s="8">
         <v>1</v>
       </c>
-      <c r="H325" s="9" t="s">
-        <v>84</v>
+      <c r="H325" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -9335,8 +9266,8 @@
       <c r="G326" s="7">
         <v>1</v>
       </c>
-      <c r="H326" s="9" t="s">
-        <v>84</v>
+      <c r="H326" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -9361,8 +9292,8 @@
       <c r="G327" s="7">
         <v>1</v>
       </c>
-      <c r="H327" s="9" t="s">
-        <v>84</v>
+      <c r="H327" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
@@ -9387,8 +9318,8 @@
       <c r="G328" s="8">
         <v>1</v>
       </c>
-      <c r="H328" s="9" t="s">
-        <v>84</v>
+      <c r="H328" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -9413,8 +9344,8 @@
       <c r="G329" s="7">
         <v>1</v>
       </c>
-      <c r="H329" s="9" t="s">
-        <v>84</v>
+      <c r="H329" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -9439,8 +9370,8 @@
       <c r="G330" s="8">
         <v>1</v>
       </c>
-      <c r="H330" s="9" t="s">
-        <v>84</v>
+      <c r="H330" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -9465,8 +9396,8 @@
       <c r="G331" s="7">
         <v>1</v>
       </c>
-      <c r="H331" s="9" t="s">
-        <v>84</v>
+      <c r="H331" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -9491,8 +9422,8 @@
       <c r="G332" s="8">
         <v>1</v>
       </c>
-      <c r="H332" s="9" t="s">
-        <v>84</v>
+      <c r="H332" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -9517,8 +9448,8 @@
       <c r="G333" s="8">
         <v>1</v>
       </c>
-      <c r="H333" s="9" t="s">
-        <v>84</v>
+      <c r="H333" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -9543,8 +9474,8 @@
       <c r="G334" s="8">
         <v>1</v>
       </c>
-      <c r="H334" s="9" t="s">
-        <v>84</v>
+      <c r="H334" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -9569,8 +9500,8 @@
       <c r="G335" s="7">
         <v>1</v>
       </c>
-      <c r="H335" s="9" t="s">
-        <v>84</v>
+      <c r="H335" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -9595,8 +9526,8 @@
       <c r="G336" s="7">
         <v>1</v>
       </c>
-      <c r="H336" s="9" t="s">
-        <v>84</v>
+      <c r="H336" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -9621,8 +9552,8 @@
       <c r="G337" s="7">
         <v>1</v>
       </c>
-      <c r="H337" s="9" t="s">
-        <v>84</v>
+      <c r="H337" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -9647,8 +9578,8 @@
       <c r="G338" s="7">
         <v>1</v>
       </c>
-      <c r="H338" s="9" t="s">
-        <v>84</v>
+      <c r="H338" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -9673,8 +9604,8 @@
       <c r="G339" s="7">
         <v>1</v>
       </c>
-      <c r="H339" s="9" t="s">
-        <v>84</v>
+      <c r="H339" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -9699,8 +9630,8 @@
       <c r="G340" s="8">
         <v>1</v>
       </c>
-      <c r="H340" s="9" t="s">
-        <v>84</v>
+      <c r="H340" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -9725,8 +9656,8 @@
       <c r="G341" s="7">
         <v>1</v>
       </c>
-      <c r="H341" s="9" t="s">
-        <v>84</v>
+      <c r="H341" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -9751,8 +9682,8 @@
       <c r="G342" s="8">
         <v>1</v>
       </c>
-      <c r="H342" s="9" t="s">
-        <v>84</v>
+      <c r="H342" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -9777,8 +9708,8 @@
       <c r="G343" s="8">
         <v>1</v>
       </c>
-      <c r="H343" s="9" t="s">
-        <v>84</v>
+      <c r="H343" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -9803,8 +9734,8 @@
       <c r="G344" s="8">
         <v>1</v>
       </c>
-      <c r="H344" s="9" t="s">
-        <v>84</v>
+      <c r="H344" s="13">
+        <v>1050</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -9829,8 +9760,8 @@
       <c r="G345" s="8">
         <v>1</v>
       </c>
-      <c r="H345" s="9" t="s">
-        <v>85</v>
+      <c r="H345" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -9855,8 +9786,8 @@
       <c r="G346" s="7">
         <v>1</v>
       </c>
-      <c r="H346" s="9" t="s">
-        <v>85</v>
+      <c r="H346" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -9881,8 +9812,8 @@
       <c r="G347" s="8">
         <v>1</v>
       </c>
-      <c r="H347" s="9" t="s">
-        <v>85</v>
+      <c r="H347" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -9907,8 +9838,8 @@
       <c r="G348" s="8">
         <v>1</v>
       </c>
-      <c r="H348" s="9" t="s">
-        <v>85</v>
+      <c r="H348" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -9933,8 +9864,8 @@
       <c r="G349" s="7">
         <v>1</v>
       </c>
-      <c r="H349" s="9" t="s">
-        <v>85</v>
+      <c r="H349" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -9959,8 +9890,8 @@
       <c r="G350" s="7">
         <v>1</v>
       </c>
-      <c r="H350" s="9" t="s">
-        <v>85</v>
+      <c r="H350" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -9985,8 +9916,8 @@
       <c r="G351" s="8">
         <v>1</v>
       </c>
-      <c r="H351" s="9" t="s">
-        <v>85</v>
+      <c r="H351" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -10011,8 +9942,8 @@
       <c r="G352" s="8">
         <v>1</v>
       </c>
-      <c r="H352" s="9" t="s">
-        <v>85</v>
+      <c r="H352" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -10037,8 +9968,8 @@
       <c r="G353" s="8">
         <v>1</v>
       </c>
-      <c r="H353" s="9" t="s">
-        <v>85</v>
+      <c r="H353" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -10063,8 +9994,8 @@
       <c r="G354" s="7">
         <v>1</v>
       </c>
-      <c r="H354" s="9" t="s">
-        <v>85</v>
+      <c r="H354" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -10089,8 +10020,8 @@
       <c r="G355" s="8">
         <v>1</v>
       </c>
-      <c r="H355" s="9" t="s">
-        <v>85</v>
+      <c r="H355" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -10115,8 +10046,8 @@
       <c r="G356" s="7">
         <v>1</v>
       </c>
-      <c r="H356" s="9" t="s">
-        <v>85</v>
+      <c r="H356" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -10141,8 +10072,8 @@
       <c r="G357" s="7">
         <v>1</v>
       </c>
-      <c r="H357" s="9" t="s">
-        <v>85</v>
+      <c r="H357" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -10167,8 +10098,8 @@
       <c r="G358" s="7">
         <v>1</v>
       </c>
-      <c r="H358" s="9" t="s">
-        <v>85</v>
+      <c r="H358" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -10193,8 +10124,8 @@
       <c r="G359" s="7">
         <v>1</v>
       </c>
-      <c r="H359" s="9" t="s">
-        <v>85</v>
+      <c r="H359" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -10219,8 +10150,8 @@
       <c r="G360" s="7">
         <v>1</v>
       </c>
-      <c r="H360" s="9" t="s">
-        <v>85</v>
+      <c r="H360" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -10245,8 +10176,8 @@
       <c r="G361" s="7">
         <v>1</v>
       </c>
-      <c r="H361" s="9" t="s">
-        <v>85</v>
+      <c r="H361" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -10271,8 +10202,8 @@
       <c r="G362" s="8">
         <v>1</v>
       </c>
-      <c r="H362" s="9" t="s">
-        <v>85</v>
+      <c r="H362" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -10297,8 +10228,8 @@
       <c r="G363" s="7">
         <v>1</v>
       </c>
-      <c r="H363" s="9" t="s">
-        <v>85</v>
+      <c r="H363" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -10323,8 +10254,8 @@
       <c r="G364" s="7">
         <v>1</v>
       </c>
-      <c r="H364" s="9" t="s">
-        <v>85</v>
+      <c r="H364" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -10349,8 +10280,8 @@
       <c r="G365" s="8">
         <v>1</v>
       </c>
-      <c r="H365" s="9" t="s">
-        <v>85</v>
+      <c r="H365" s="13">
+        <v>1100</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -10375,8 +10306,8 @@
       <c r="G366" s="7">
         <v>1</v>
       </c>
-      <c r="H366" s="9" t="s">
-        <v>86</v>
+      <c r="H366" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -10401,8 +10332,8 @@
       <c r="G367" s="8">
         <v>1</v>
       </c>
-      <c r="H367" s="9" t="s">
-        <v>86</v>
+      <c r="H367" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10413,7 +10344,7 @@
         <v>10001</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D368" s="8" t="s">
         <v>8</v>
@@ -10427,8 +10358,8 @@
       <c r="G368" s="8">
         <v>1</v>
       </c>
-      <c r="H368" s="9" t="s">
-        <v>87</v>
+      <c r="H368" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -10439,7 +10370,7 @@
         <v>10001</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D369" s="8" t="s">
         <v>8</v>
@@ -10453,8 +10384,8 @@
       <c r="G369" s="8">
         <v>1</v>
       </c>
-      <c r="H369" s="9" t="s">
-        <v>87</v>
+      <c r="H369" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -10465,7 +10396,7 @@
         <v>10001</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D370" s="8" t="s">
         <v>8</v>
@@ -10479,8 +10410,8 @@
       <c r="G370" s="7">
         <v>1</v>
       </c>
-      <c r="H370" s="9" t="s">
-        <v>87</v>
+      <c r="H370" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,7 +10422,7 @@
         <v>10001</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D371" s="8" t="s">
         <v>8</v>
@@ -10505,8 +10436,8 @@
       <c r="G371" s="8">
         <v>1</v>
       </c>
-      <c r="H371" s="9" t="s">
-        <v>87</v>
+      <c r="H371" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -10517,7 +10448,7 @@
         <v>10001</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D372" s="8" t="s">
         <v>8</v>
@@ -10531,8 +10462,8 @@
       <c r="G372" s="7">
         <v>1</v>
       </c>
-      <c r="H372" s="9" t="s">
-        <v>87</v>
+      <c r="H372" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -10543,7 +10474,7 @@
         <v>10001</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D373" s="8" t="s">
         <v>8</v>
@@ -10557,8 +10488,8 @@
       <c r="G373" s="7">
         <v>1</v>
       </c>
-      <c r="H373" s="9" t="s">
-        <v>87</v>
+      <c r="H373" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -10569,7 +10500,7 @@
         <v>10001</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D374" s="8" t="s">
         <v>8</v>
@@ -10583,8 +10514,8 @@
       <c r="G374" s="8">
         <v>1</v>
       </c>
-      <c r="H374" s="9" t="s">
-        <v>87</v>
+      <c r="H374" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -10595,7 +10526,7 @@
         <v>10001</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D375" s="8" t="s">
         <v>8</v>
@@ -10609,8 +10540,8 @@
       <c r="G375" s="7">
         <v>1</v>
       </c>
-      <c r="H375" s="9" t="s">
-        <v>87</v>
+      <c r="H375" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -10621,7 +10552,7 @@
         <v>10001</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D376" s="8" t="s">
         <v>8</v>
@@ -10635,8 +10566,8 @@
       <c r="G376" s="8">
         <v>1</v>
       </c>
-      <c r="H376" s="9" t="s">
-        <v>87</v>
+      <c r="H376" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -10647,7 +10578,7 @@
         <v>10001</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D377" s="8" t="s">
         <v>8</v>
@@ -10661,8 +10592,8 @@
       <c r="G377" s="8">
         <v>1</v>
       </c>
-      <c r="H377" s="9" t="s">
-        <v>87</v>
+      <c r="H377" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -10673,7 +10604,7 @@
         <v>10001</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D378" s="8" t="s">
         <v>8</v>
@@ -10687,8 +10618,8 @@
       <c r="G378" s="8">
         <v>1</v>
       </c>
-      <c r="H378" s="9" t="s">
-        <v>87</v>
+      <c r="H378" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -10699,7 +10630,7 @@
         <v>10001</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D379" s="8" t="s">
         <v>8</v>
@@ -10713,8 +10644,8 @@
       <c r="G379" s="8">
         <v>1</v>
       </c>
-      <c r="H379" s="9" t="s">
-        <v>87</v>
+      <c r="H379" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -10725,7 +10656,7 @@
         <v>10001</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D380" s="8" t="s">
         <v>8</v>
@@ -10739,8 +10670,8 @@
       <c r="G380" s="7">
         <v>1</v>
       </c>
-      <c r="H380" s="9" t="s">
-        <v>87</v>
+      <c r="H380" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -10751,7 +10682,7 @@
         <v>10001</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D381" s="8" t="s">
         <v>8</v>
@@ -10765,8 +10696,8 @@
       <c r="G381" s="8">
         <v>1</v>
       </c>
-      <c r="H381" s="9" t="s">
-        <v>87</v>
+      <c r="H381" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -10777,7 +10708,7 @@
         <v>10001</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D382" s="8" t="s">
         <v>8</v>
@@ -10791,8 +10722,8 @@
       <c r="G382" s="8">
         <v>1</v>
       </c>
-      <c r="H382" s="9" t="s">
-        <v>87</v>
+      <c r="H382" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -10803,7 +10734,7 @@
         <v>10001</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D383" s="8" t="s">
         <v>8</v>
@@ -10817,8 +10748,8 @@
       <c r="G383" s="8">
         <v>1</v>
       </c>
-      <c r="H383" s="9" t="s">
-        <v>87</v>
+      <c r="H383" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -10829,7 +10760,7 @@
         <v>10001</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D384" s="8" t="s">
         <v>8</v>
@@ -10843,8 +10774,8 @@
       <c r="G384" s="8">
         <v>1</v>
       </c>
-      <c r="H384" s="9" t="s">
-        <v>87</v>
+      <c r="H384" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -10855,7 +10786,7 @@
         <v>10001</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D385" s="8" t="s">
         <v>8</v>
@@ -10869,8 +10800,8 @@
       <c r="G385" s="7">
         <v>1</v>
       </c>
-      <c r="H385" s="9" t="s">
-        <v>87</v>
+      <c r="H385" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -10895,8 +10826,8 @@
       <c r="G386" s="8">
         <v>1</v>
       </c>
-      <c r="H386" s="9" t="s">
-        <v>86</v>
+      <c r="H386" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -10921,8 +10852,8 @@
       <c r="G387" s="8">
         <v>1</v>
       </c>
-      <c r="H387" s="9" t="s">
-        <v>86</v>
+      <c r="H387" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -10947,8 +10878,8 @@
       <c r="G388" s="8">
         <v>1</v>
       </c>
-      <c r="H388" s="9" t="s">
-        <v>86</v>
+      <c r="H388" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -10973,8 +10904,8 @@
       <c r="G389" s="8">
         <v>1</v>
       </c>
-      <c r="H389" s="9" t="s">
-        <v>86</v>
+      <c r="H389" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -10999,8 +10930,8 @@
       <c r="G390" s="7">
         <v>-1</v>
       </c>
-      <c r="H390" s="9" t="s">
-        <v>86</v>
+      <c r="H390" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11025,8 +10956,8 @@
       <c r="G391" s="7">
         <v>1</v>
       </c>
-      <c r="H391" s="9" t="s">
-        <v>86</v>
+      <c r="H391" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11051,8 +10982,8 @@
       <c r="G392" s="8">
         <v>1</v>
       </c>
-      <c r="H392" s="9" t="s">
-        <v>86</v>
+      <c r="H392" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -11077,8 +11008,8 @@
       <c r="G393" s="7">
         <v>1</v>
       </c>
-      <c r="H393" s="9" t="s">
-        <v>86</v>
+      <c r="H393" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -11103,8 +11034,8 @@
       <c r="G394" s="8">
         <v>1</v>
       </c>
-      <c r="H394" s="9" t="s">
-        <v>86</v>
+      <c r="H394" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -11129,8 +11060,8 @@
       <c r="G395" s="8">
         <v>1</v>
       </c>
-      <c r="H395" s="9" t="s">
-        <v>86</v>
+      <c r="H395" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -11155,8 +11086,8 @@
       <c r="G396" s="7">
         <v>1</v>
       </c>
-      <c r="H396" s="9" t="s">
-        <v>86</v>
+      <c r="H396" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -11181,8 +11112,8 @@
       <c r="G397" s="7">
         <v>1</v>
       </c>
-      <c r="H397" s="9" t="s">
-        <v>86</v>
+      <c r="H397" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11207,8 +11138,8 @@
       <c r="G398" s="7">
         <v>1</v>
       </c>
-      <c r="H398" s="9" t="s">
-        <v>87</v>
+      <c r="H398" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11233,8 +11164,8 @@
       <c r="G399" s="7">
         <v>1</v>
       </c>
-      <c r="H399" s="9" t="s">
-        <v>87</v>
+      <c r="H399" s="13">
+        <v>1200</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -11259,8 +11190,8 @@
       <c r="G400" s="8">
         <v>1</v>
       </c>
-      <c r="H400" s="9" t="s">
-        <v>86</v>
+      <c r="H400" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -11285,8 +11216,8 @@
       <c r="G401" s="7">
         <v>1</v>
       </c>
-      <c r="H401" s="9" t="s">
-        <v>86</v>
+      <c r="H401" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -11311,8 +11242,8 @@
       <c r="G402" s="8">
         <v>1</v>
       </c>
-      <c r="H402" s="9" t="s">
-        <v>86</v>
+      <c r="H402" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -11337,8 +11268,8 @@
       <c r="G403" s="7">
         <v>1</v>
       </c>
-      <c r="H403" s="9" t="s">
-        <v>86</v>
+      <c r="H403" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -11363,34 +11294,34 @@
       <c r="G404" s="7">
         <v>1</v>
       </c>
-      <c r="H404" s="9" t="s">
-        <v>86</v>
+      <c r="H404" s="13">
+        <v>1150</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>43992</v>
       </c>
-      <c r="B405" s="10">
+      <c r="B405" s="9">
         <v>10003</v>
       </c>
-      <c r="C405" s="10" t="s">
+      <c r="C405" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D405" s="11" t="s">
+      <c r="D405" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E405" s="10" t="s">
+      <c r="E405" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F405" s="10" t="s">
+      <c r="F405" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G405" s="10">
-        <v>1</v>
-      </c>
-      <c r="H405" s="12" t="s">
-        <v>86</v>
+      <c r="G405" s="9">
+        <v>1</v>
+      </c>
+      <c r="H405" s="14">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
